--- a/Results.xlsx
+++ b/Results.xlsx
@@ -2366,6 +2366,11 @@
           <t>48/50</t>
         </is>
       </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -393,7 +393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T3" sqref="T3"/>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>34/50</t>
+          <t>34/54</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2365,6 +2365,12 @@
         <is>
           <t>48/50</t>
         </is>
+      </c>
+      <c r="Z53" t="n">
+        <v>-0.5515</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-0.2324</v>
       </c>
     </row>
   </sheetData>
